--- a/excelData/BIS_ExtractInfo.template.xlsx
+++ b/excelData/BIS_ExtractInfo.template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heguangliang/PycharmProjects/databaseDemo2/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC93E331-001E-0148-8C5B-6AAC379F0139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B928C8E-2C8F-D441-8652-7B0A16630543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{F70CB909-1833-9243-8D44-3F46628BBE0B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{F70CB909-1833-9243-8D44-3F46628BBE0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>生物样本编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,9 @@
   <si>
     <t>血浆</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱位置</t>
   </si>
 </sst>
 </file>
@@ -523,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DAB2E2-03B7-BB4A-86F5-59665042E045}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -534,10 +537,10 @@
     <col min="1" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="2"/>
     <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="1"/>
+    <col min="8" max="10" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -566,12 +569,15 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -604,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909720B6-BDAE-FA4A-9F8A-44CF4053251C}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/excelData/BIS_ExtractInfo.template.xlsx
+++ b/excelData/BIS_ExtractInfo.template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heguangliang/PycharmProjects/databaseDemo2/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B928C8E-2C8F-D441-8652-7B0A16630543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335D9146-C4F7-CF46-BEFC-8E93CD4D40F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{F70CB909-1833-9243-8D44-3F46628BBE0B}"/>
   </bookViews>
@@ -34,10 +34,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
-    <t>生物样本编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>核酸提取编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,6 +127,10 @@
   </si>
   <si>
     <t>冰箱位置</t>
+  </si>
+  <si>
+    <t>华大编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -542,43 +542,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -618,59 +618,59 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
